--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4676865212688012</v>
+        <v>0.4609249367666753</v>
       </c>
       <c r="C2">
-        <v>0.7278464122595046</v>
+        <v>0.7037408350246651</v>
       </c>
       <c r="D2">
-        <v>0.7339839054343897</v>
+        <v>0.6939948720570934</v>
       </c>
       <c r="E2">
-        <v>0.8567286066394595</v>
+        <v>0.833063546229874</v>
       </c>
       <c r="F2">
-        <v>0.7449081061348481</v>
+        <v>0.7182889450858672</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3363682959416999</v>
+        <v>0.3216291049761831</v>
       </c>
       <c r="C3">
-        <v>0.6457188957180919</v>
+        <v>0.6088832333399757</v>
       </c>
       <c r="D3">
-        <v>0.6276787328549855</v>
+        <v>0.584052044952158</v>
       </c>
       <c r="E3">
-        <v>0.7922617830332254</v>
+        <v>0.7642329781893464</v>
       </c>
       <c r="F3">
-        <v>0.746600982811625</v>
+        <v>0.7194279080246428</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2243615251330465</v>
+        <v>0.2154567245497249</v>
       </c>
       <c r="C4">
-        <v>0.5687810927561541</v>
+        <v>0.5333824792787472</v>
       </c>
       <c r="D4">
-        <v>0.5247959738158737</v>
+        <v>0.4853342657017765</v>
       </c>
       <c r="E4">
-        <v>0.7244280321853053</v>
+        <v>0.6966593613106599</v>
       </c>
       <c r="F4">
-        <v>0.7194375680962157</v>
+        <v>0.6895569019380638</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4657310047699699</v>
+        <v>0.4452680593528981</v>
       </c>
       <c r="C5">
-        <v>0.5872247095320146</v>
+        <v>0.5566372887181056</v>
       </c>
       <c r="D5">
-        <v>0.5227478398014983</v>
+        <v>0.4832252965807901</v>
       </c>
       <c r="E5">
-        <v>0.7230130287909744</v>
+        <v>0.6951440833243063</v>
       </c>
       <c r="F5">
-        <v>0.5800230323850923</v>
+        <v>0.5575547117719994</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3261475503236086</v>
+        <v>0.3156011815745178</v>
       </c>
       <c r="C6">
-        <v>0.4650377071506829</v>
+        <v>0.4418649605082216</v>
       </c>
       <c r="D6">
-        <v>0.2663550188012601</v>
+        <v>0.2461552685847581</v>
       </c>
       <c r="E6">
-        <v>0.5160959395318472</v>
+        <v>0.4961403718553431</v>
       </c>
       <c r="F6">
-        <v>0.4216143501394626</v>
+        <v>0.4015050174666302</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3984551720560076</v>
+        <v>0.3772995006961687</v>
       </c>
       <c r="C7">
-        <v>0.4686264492223932</v>
+        <v>0.4404536501459158</v>
       </c>
       <c r="D7">
-        <v>0.2760835748252289</v>
+        <v>0.2519683207200895</v>
       </c>
       <c r="E7">
-        <v>0.5254365564225894</v>
+        <v>0.5019644616106697</v>
       </c>
       <c r="F7">
-        <v>0.3632928323307895</v>
+        <v>0.348988072853359</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3727204804701291</v>
+        <v>0.3543917895297701</v>
       </c>
       <c r="C8">
-        <v>0.4419510835429571</v>
+        <v>0.4159301033722839</v>
       </c>
       <c r="D8">
-        <v>0.2389009617572787</v>
+        <v>0.2171525390636058</v>
       </c>
       <c r="E8">
-        <v>0.4887749602396574</v>
+        <v>0.4659962865341373</v>
       </c>
       <c r="F8">
-        <v>0.3380285790037704</v>
+        <v>0.3209421651944155</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.40438896320044</v>
+        <v>0.380213756763938</v>
       </c>
       <c r="C9">
-        <v>0.4819261269729974</v>
+        <v>0.4480587750649256</v>
       </c>
       <c r="D9">
-        <v>0.2775030821711003</v>
+        <v>0.2483796526124562</v>
       </c>
       <c r="E9">
-        <v>0.5267856131018579</v>
+        <v>0.4983770185436486</v>
       </c>
       <c r="F9">
-        <v>0.3646478987300431</v>
+        <v>0.3444534416474213</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3540941466774772</v>
+        <v>0.3348409171772554</v>
       </c>
       <c r="C10">
-        <v>0.435791154346219</v>
+        <v>0.4048669237504626</v>
       </c>
       <c r="D10">
-        <v>0.2280999627945518</v>
+        <v>0.2023859592503501</v>
       </c>
       <c r="E10">
-        <v>0.4775981184998029</v>
+        <v>0.4498732702110118</v>
       </c>
       <c r="F10">
-        <v>0.3510851146089238</v>
+        <v>0.3245182676007908</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.42605194818598</v>
+        <v>0.3934609991409326</v>
       </c>
       <c r="C11">
-        <v>0.5126036731367216</v>
+        <v>0.465587436599884</v>
       </c>
       <c r="D11">
-        <v>0.2881002352287358</v>
+        <v>0.2489390515396543</v>
       </c>
       <c r="E11">
-        <v>0.5367496951361368</v>
+        <v>0.4989379235332331</v>
       </c>
       <c r="F11">
-        <v>0.3649999532117553</v>
+        <v>0.3360847994682415</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4609249367666753</v>
+        <v>0.5165012559121004</v>
       </c>
       <c r="C2">
-        <v>0.7037408350246651</v>
+        <v>0.7041422298085055</v>
       </c>
       <c r="D2">
-        <v>0.6939948720570934</v>
+        <v>0.6513016757365531</v>
       </c>
       <c r="E2">
-        <v>0.833063546229874</v>
+        <v>0.8070326361037409</v>
       </c>
       <c r="F2">
-        <v>0.7182889450858672</v>
+        <v>0.6435116278483757</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3216291049761831</v>
+        <v>0.3104632072696188</v>
       </c>
       <c r="C3">
-        <v>0.6088832333399757</v>
+        <v>0.5383557835394773</v>
       </c>
       <c r="D3">
-        <v>0.584052044952158</v>
+        <v>0.4470623602678305</v>
       </c>
       <c r="E3">
-        <v>0.7642329781893464</v>
+        <v>0.6686272207051029</v>
       </c>
       <c r="F3">
-        <v>0.7194279080246428</v>
+        <v>0.6163585566045678</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2154567245497249</v>
+        <v>0.3391134671465679</v>
       </c>
       <c r="C4">
-        <v>0.5333824792787472</v>
+        <v>0.5090805170705599</v>
       </c>
       <c r="D4">
-        <v>0.4853342657017765</v>
+        <v>0.4219980843258732</v>
       </c>
       <c r="E4">
-        <v>0.6966593613106599</v>
+        <v>0.6496137962865884</v>
       </c>
       <c r="F4">
-        <v>0.6895569019380638</v>
+        <v>0.578713438955796</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4452680593528981</v>
+        <v>0.3337917257302686</v>
       </c>
       <c r="C5">
-        <v>0.5566372887181056</v>
+        <v>0.4696055677140649</v>
       </c>
       <c r="D5">
-        <v>0.4832252965807901</v>
+        <v>0.2791590168366371</v>
       </c>
       <c r="E5">
-        <v>0.6951440833243063</v>
+        <v>0.5283550102314135</v>
       </c>
       <c r="F5">
-        <v>0.5575547117719994</v>
+        <v>0.4295536180009555</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3156011815745178</v>
+        <v>0.4045476033665492</v>
       </c>
       <c r="C6">
-        <v>0.4418649605082216</v>
+        <v>0.4608815459385528</v>
       </c>
       <c r="D6">
-        <v>0.2461552685847581</v>
+        <v>0.2775773177649309</v>
       </c>
       <c r="E6">
-        <v>0.4961403718553431</v>
+        <v>0.5268560693063438</v>
       </c>
       <c r="F6">
-        <v>0.4015050174666302</v>
+        <v>0.3557754509913868</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3772995006961687</v>
+        <v>0.3354180023350901</v>
       </c>
       <c r="C7">
-        <v>0.4404536501459158</v>
+        <v>0.401425754014993</v>
       </c>
       <c r="D7">
-        <v>0.2519683207200895</v>
+        <v>0.2011920589153808</v>
       </c>
       <c r="E7">
-        <v>0.5019644616106697</v>
+        <v>0.4485443778662049</v>
       </c>
       <c r="F7">
-        <v>0.348988072853359</v>
+        <v>0.3158681298469871</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3543917895297701</v>
+        <v>0.3794834057612096</v>
       </c>
       <c r="C8">
-        <v>0.4159301033722839</v>
+        <v>0.444356733850047</v>
       </c>
       <c r="D8">
-        <v>0.2171525390636058</v>
+        <v>0.2440075877121284</v>
       </c>
       <c r="E8">
-        <v>0.4659962865341373</v>
+        <v>0.493971241786532</v>
       </c>
       <c r="F8">
-        <v>0.3209421651944155</v>
+        <v>0.3380615877347145</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.380213756763938</v>
+        <v>0.340609349648699</v>
       </c>
       <c r="C9">
-        <v>0.4480587750649256</v>
+        <v>0.4069218976430036</v>
       </c>
       <c r="D9">
-        <v>0.2483796526124562</v>
+        <v>0.2045529024993298</v>
       </c>
       <c r="E9">
-        <v>0.4983770185436486</v>
+        <v>0.452275250814512</v>
       </c>
       <c r="F9">
-        <v>0.3444534416474213</v>
+        <v>0.3213946727463862</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3348409171772554</v>
+        <v>0.3910026095914697</v>
       </c>
       <c r="C10">
-        <v>0.4048669237504626</v>
+        <v>0.4634125819798098</v>
       </c>
       <c r="D10">
-        <v>0.2023859592503501</v>
+        <v>0.2475590203832885</v>
       </c>
       <c r="E10">
-        <v>0.4498732702110118</v>
+        <v>0.49755303273449</v>
       </c>
       <c r="F10">
-        <v>0.3245182676007908</v>
+        <v>0.3370625692822314</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3934609991409326</v>
+        <v>0.3845419086351703</v>
       </c>
       <c r="C11">
-        <v>0.465587436599884</v>
+        <v>0.4648443220891614</v>
       </c>
       <c r="D11">
-        <v>0.2489390515396543</v>
+        <v>0.2552201254894569</v>
       </c>
       <c r="E11">
-        <v>0.4989379235332331</v>
+        <v>0.505193156613841</v>
       </c>
       <c r="F11">
-        <v>0.3360847994682415</v>
+        <v>0.3663121039371297</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5165012559121004</v>
+        <v>0.4609249367666753</v>
       </c>
       <c r="C2">
-        <v>0.7041422298085055</v>
+        <v>0.7037408350246651</v>
       </c>
       <c r="D2">
-        <v>0.6513016757365531</v>
+        <v>0.6939948720570934</v>
       </c>
       <c r="E2">
-        <v>0.8070326361037409</v>
+        <v>0.833063546229874</v>
       </c>
       <c r="F2">
-        <v>0.6435116278483757</v>
+        <v>0.7182889450858672</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3104632072696188</v>
+        <v>0.3216291049761831</v>
       </c>
       <c r="C3">
-        <v>0.5383557835394773</v>
+        <v>0.6088832333399757</v>
       </c>
       <c r="D3">
-        <v>0.4470623602678305</v>
+        <v>0.584052044952158</v>
       </c>
       <c r="E3">
-        <v>0.6686272207051029</v>
+        <v>0.7642329781893464</v>
       </c>
       <c r="F3">
-        <v>0.6163585566045678</v>
+        <v>0.7194279080246428</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3391134671465679</v>
+        <v>0.2154567245497249</v>
       </c>
       <c r="C4">
-        <v>0.5090805170705599</v>
+        <v>0.5333824792787472</v>
       </c>
       <c r="D4">
-        <v>0.4219980843258732</v>
+        <v>0.4853342657017765</v>
       </c>
       <c r="E4">
-        <v>0.6496137962865884</v>
+        <v>0.6966593613106599</v>
       </c>
       <c r="F4">
-        <v>0.578713438955796</v>
+        <v>0.6895569019380638</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3337917257302686</v>
+        <v>0.4452680593528981</v>
       </c>
       <c r="C5">
-        <v>0.4696055677140649</v>
+        <v>0.5566372887181056</v>
       </c>
       <c r="D5">
-        <v>0.2791590168366371</v>
+        <v>0.4832252965807901</v>
       </c>
       <c r="E5">
-        <v>0.5283550102314135</v>
+        <v>0.6951440833243063</v>
       </c>
       <c r="F5">
-        <v>0.4295536180009555</v>
+        <v>0.5575547117719994</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4045476033665492</v>
+        <v>0.3156011815745178</v>
       </c>
       <c r="C6">
-        <v>0.4608815459385528</v>
+        <v>0.4418649605082216</v>
       </c>
       <c r="D6">
-        <v>0.2775773177649309</v>
+        <v>0.2461552685847581</v>
       </c>
       <c r="E6">
-        <v>0.5268560693063438</v>
+        <v>0.4961403718553431</v>
       </c>
       <c r="F6">
-        <v>0.3557754509913868</v>
+        <v>0.4015050174666302</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3354180023350901</v>
+        <v>0.3772995006961687</v>
       </c>
       <c r="C7">
-        <v>0.401425754014993</v>
+        <v>0.4404536501459158</v>
       </c>
       <c r="D7">
-        <v>0.2011920589153808</v>
+        <v>0.2519683207200895</v>
       </c>
       <c r="E7">
-        <v>0.4485443778662049</v>
+        <v>0.5019644616106697</v>
       </c>
       <c r="F7">
-        <v>0.3158681298469871</v>
+        <v>0.348988072853359</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3794834057612096</v>
+        <v>0.3543917895297701</v>
       </c>
       <c r="C8">
-        <v>0.444356733850047</v>
+        <v>0.4159301033722839</v>
       </c>
       <c r="D8">
-        <v>0.2440075877121284</v>
+        <v>0.2171525390636058</v>
       </c>
       <c r="E8">
-        <v>0.493971241786532</v>
+        <v>0.4659962865341373</v>
       </c>
       <c r="F8">
-        <v>0.3380615877347145</v>
+        <v>0.3209421651944155</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.340609349648699</v>
+        <v>0.380213756763938</v>
       </c>
       <c r="C9">
-        <v>0.4069218976430036</v>
+        <v>0.4480587750649256</v>
       </c>
       <c r="D9">
-        <v>0.2045529024993298</v>
+        <v>0.2483796526124562</v>
       </c>
       <c r="E9">
-        <v>0.452275250814512</v>
+        <v>0.4983770185436486</v>
       </c>
       <c r="F9">
-        <v>0.3213946727463862</v>
+        <v>0.3444534416474213</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3910026095914697</v>
+        <v>0.3348409171772554</v>
       </c>
       <c r="C10">
-        <v>0.4634125819798098</v>
+        <v>0.4048669237504626</v>
       </c>
       <c r="D10">
-        <v>0.2475590203832885</v>
+        <v>0.2023859592503501</v>
       </c>
       <c r="E10">
-        <v>0.49755303273449</v>
+        <v>0.4498732702110118</v>
       </c>
       <c r="F10">
-        <v>0.3370625692822314</v>
+        <v>0.3245182676007908</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3845419086351703</v>
+        <v>0.3934609991409326</v>
       </c>
       <c r="C11">
-        <v>0.4648443220891614</v>
+        <v>0.465587436599884</v>
       </c>
       <c r="D11">
-        <v>0.2552201254894569</v>
+        <v>0.2489390515396543</v>
       </c>
       <c r="E11">
-        <v>0.505193156613841</v>
+        <v>0.4989379235332331</v>
       </c>
       <c r="F11">
-        <v>0.3663121039371297</v>
+        <v>0.3360847994682415</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
